--- a/ONCHO/OEM/Sierra Leone/sr_oncho_oem_3_resultat_202211.xlsx
+++ b/ONCHO/OEM/Sierra Leone/sr_oncho_oem_3_resultat_202211.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\OEM\Sierra Leone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B215E-A2FF-46DC-ACF4-03394A405B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F94E82-4369-4BE5-8F3C-FF2980D2AAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
   <si>
     <t>type</t>
   </si>
@@ -80,15 +80,6 @@
     <t>yesNoDontKnow</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>Ne sais pas</t>
-  </si>
-  <si>
     <t>yesNo</t>
   </si>
   <si>
@@ -98,72 +89,12 @@
     <t>results</t>
   </si>
   <si>
-    <t>Positif</t>
-  </si>
-  <si>
-    <t>Negatif</t>
-  </si>
-  <si>
-    <t>Négatif</t>
-  </si>
-  <si>
-    <t>Invalide</t>
-  </si>
-  <si>
-    <t>Invalide (y compris les erreurs de test et le sang insuffisant)</t>
-  </si>
-  <si>
-    <t>Refuse</t>
-  </si>
-  <si>
-    <t>Refusé (retrait du consentement)</t>
-  </si>
-  <si>
     <t>why_invalid</t>
   </si>
   <si>
-    <t>Absence.de.ligne.temoin</t>
-  </si>
-  <si>
-    <t>Absence de ligne témoin</t>
-  </si>
-  <si>
-    <t>Ligne.temoin.brisees/partielle</t>
-  </si>
-  <si>
-    <t>Ligne témoin brisées/partielle</t>
-  </si>
-  <si>
-    <t>Difficulte.d.absorption.d.echantillon</t>
-  </si>
-  <si>
-    <t>Difficulté d’absorption d’échantillon</t>
-  </si>
-  <si>
-    <t>Difficulte.de.migration.de.l.echantillon</t>
-  </si>
-  <si>
-    <t>Difficulté de migration de l’échantillon</t>
-  </si>
-  <si>
-    <t>Trace.de.sang.persiste</t>
-  </si>
-  <si>
-    <t>Trace de sang persiste</t>
-  </si>
-  <si>
-    <t>Insuffisance.du.volume.de.sang.due.a.la.pipette</t>
-  </si>
-  <si>
-    <t>Insuffisance du volume de sang due à la pipette</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Autre (expliquer)</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -357,6 +288,72 @@
   </si>
   <si>
     <t>select_one community_id</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Do not know</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Invalid (including test errors and insufficient blood)</t>
+  </si>
+  <si>
+    <t>Refused (withdrawal of consent)</t>
+  </si>
+  <si>
+    <t>No control line</t>
+  </si>
+  <si>
+    <t>Broken/partial control line</t>
+  </si>
+  <si>
+    <t>Difficulty in sample uptake</t>
+  </si>
+  <si>
+    <t>Difficulty with sample migration</t>
+  </si>
+  <si>
+    <t>Trace of blood remains</t>
+  </si>
+  <si>
+    <t>Insufficient blood volume due to pipette</t>
+  </si>
+  <si>
+    <t>Other (explain)</t>
+  </si>
+  <si>
+    <t>Invalid.(including.test.errors.and.insufficient.blood)</t>
+  </si>
+  <si>
+    <t>Refused.(withdrawal.of.consent)</t>
+  </si>
+  <si>
+    <t>No.control.line</t>
+  </si>
+  <si>
+    <t>Broken/partial.control.line</t>
+  </si>
+  <si>
+    <t>Difficulty.in.sample.uptake</t>
+  </si>
+  <si>
+    <t>Difficulty.with.sample.migration</t>
+  </si>
+  <si>
+    <t>Trace.of.blood.remains</t>
+  </si>
+  <si>
+    <t>Insufficient.blood.volume.due.to.pipette</t>
   </si>
 </sst>
 </file>
@@ -817,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
@@ -848,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -860,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>4</v>
@@ -880,23 +877,23 @@
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="31.35">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="11" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -908,13 +905,13 @@
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="5"/>
@@ -930,13 +927,13 @@
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1">
       <c r="A4" s="23" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="11"/>
@@ -949,18 +946,18 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="23" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1">
       <c r="A5" s="23" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="11"/>
@@ -973,24 +970,24 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="23" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="H6" s="22"/>
       <c r="J6" s="22" t="s">
@@ -999,19 +996,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H7" s="22"/>
       <c r="J7" s="22" t="s">
@@ -1020,17 +1017,17 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>9</v>
@@ -1044,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -1065,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="15"/>
@@ -1085,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1103,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1126,9 +1123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
@@ -1148,13 +1145,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -1163,10 +1160,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1174,10 +1171,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1185,32 +1182,32 @@
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1220,24 +1217,24 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1247,320 +1244,320 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="15" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="15" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="20" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="20" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>101</v>
@@ -1569,12 +1566,12 @@
         <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>102</v>
@@ -1583,12 +1580,12 @@
         <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B41">
         <v>103</v>
@@ -1597,12 +1594,12 @@
         <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B42">
         <v>104</v>
@@ -1611,12 +1608,12 @@
         <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B43">
         <v>105</v>
@@ -1625,12 +1622,12 @@
         <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>106</v>
@@ -1639,12 +1636,12 @@
         <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B45">
         <v>107</v>
@@ -1653,12 +1650,12 @@
         <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="20" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B46">
         <v>108</v>
@@ -1667,12 +1664,12 @@
         <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>109</v>
@@ -1681,12 +1678,12 @@
         <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>110</v>
@@ -1695,12 +1692,12 @@
         <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>111</v>
@@ -1709,12 +1706,12 @@
         <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>112</v>
@@ -1723,7 +1720,7 @@
         <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1750,27 +1747,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>9</v>
